--- a/Data/UN Population Data/Sweden.xlsx
+++ b/Data/UN Population Data/Sweden.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>…</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>Crude birth rate (births per 1,000 population)</t>
+  </si>
+  <si>
+    <t>Model 2 : Seroprevalence applied to current population</t>
+  </si>
+  <si>
+    <t>Model 1 : Seroprevalence applied to era of collection and current data extrapolated</t>
+  </si>
+  <si>
+    <t>2015 Population</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -203,7 +215,7 @@
     <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="165" formatCode="##0.0;\-##0.0;0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +264,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +291,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -341,12 +366,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,37 +481,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -681,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,16 +851,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -1824,8 +1972,8 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
@@ -1869,43 +2017,43 @@
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="20">
+      <c r="C20" s="10">
         <v>9.7370000000000001</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="10">
         <v>9.7279999999999998</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="10">
         <v>10.044</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="10">
         <v>10.263999999999999</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="10">
         <v>10.468999999999999</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="10">
         <v>10.96</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="10">
         <v>11.045</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="10">
         <v>11.185</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="10">
         <v>10.954000000000001</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="10">
         <v>10.664999999999999</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="10">
         <v>10.461</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="10">
         <v>9.9459999999999997</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="10">
         <v>9.4819999999999993</v>
       </c>
     </row>
@@ -1968,49 +2116,49 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>15.361000000000001</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="10">
         <v>14.411</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="10">
         <v>14.846</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="10">
         <v>14.776999999999999</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="10">
         <v>13.512</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="10">
         <v>11.696999999999999</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="10">
         <v>11.321</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="10">
         <v>12.962</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="10">
         <v>13.542</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="10">
         <v>10.366</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="10">
         <v>10.801</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="10">
         <v>11.88</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="10">
         <v>11.976000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
@@ -2021,51 +2169,51 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2079,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P8"/>
+  <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,187 +2243,384 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="26">
         <f>Sheet1!C13</f>
         <v>594.42700000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="27">
         <f>E4/SUM($E$4:$E$6)</f>
         <v>0.27334601900459482</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="28">
         <f>SUM(D4*F4,D5*F5,D6*F6)</f>
         <v>3.9768679942169527</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="28">
         <f>SUM(E4:E6)*1000</f>
         <v>2174632</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="28">
         <f>H4*(G4/100)</f>
         <v>86482.243999999992</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="29">
         <f>H4-I4</f>
         <v>2088149.7560000001</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="27">
         <v>5.8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="26">
         <f>Sheet1!D13</f>
         <v>569.84900000000005</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="27">
         <f>E5/SUM($E$4:$E$6)</f>
         <v>0.26204387684904851</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="27">
         <v>4.7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="26">
         <f>SUM(Sheet1!E13:F13)</f>
         <v>1010.356</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="27">
         <f>E6/SUM($E$4:$E$6)</f>
         <v>0.46461010414635673</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="B7" s="23">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="27">
         <v>5.9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="26">
         <f>SUM(Sheet1!G13:J13)</f>
         <v>2422.0529999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="27">
         <f>E7/SUM($E$7:$E$8)</f>
         <v>0.36357401346305229</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="28">
         <f>SUM(D7*F7,D8*F8)</f>
         <v>2.4632996727004821</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="28">
         <f>SUM(E7:E8)*1000</f>
         <v>6661788</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="28">
         <f>H7*(G7/100)</f>
         <v>164099.802</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="31">
         <f>H7-I7</f>
         <v>6497688.1979999999</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>0.5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="33">
         <f>SUM(Sheet1!K13:X13)</f>
         <v>4239.7349999999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <f>E8/SUM($E$7:$E$8)</f>
         <v>0.63642598653694771</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27">
+        <f>Sheet1!C17</f>
+        <v>587.40499999999997</v>
+      </c>
+      <c r="F13" s="27">
+        <f>E13/SUM($E$13:$E$15)</f>
+        <v>0.26767998979233781</v>
+      </c>
+      <c r="G13" s="28">
+        <f>SUM(D13*F13,D14*F14,D15*F15)</f>
+        <v>4.0012499829112791</v>
+      </c>
+      <c r="H13" s="28">
+        <f>SUM(E13:E15)*1000</f>
+        <v>2194430.0000000005</v>
+      </c>
+      <c r="I13" s="28">
+        <f>H13*G13</f>
+        <v>8780463</v>
+      </c>
+      <c r="J13" s="29">
+        <f>I13-H13</f>
+        <v>6586033</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="E14" s="27">
+        <f>Sheet1!D17</f>
+        <v>581.85500000000002</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" ref="F14:F15" si="0">E14/SUM($E$13:$E$15)</f>
+        <v>0.26515085922084547</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="27">
+        <v>4.7</v>
+      </c>
+      <c r="E15" s="27">
+        <f>SUM(Sheet1!E17:F17)</f>
+        <v>1025.17</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.46716915098681661</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27">
+        <v>5.9</v>
+      </c>
+      <c r="E16" s="27">
+        <f>SUM(Sheet1!G17:J17)</f>
+        <v>2574.44</v>
+      </c>
+      <c r="F16" s="27">
+        <f>E16/SUM($E$16:$E$17)</f>
+        <v>0.34012340908175098</v>
+      </c>
+      <c r="G16" s="28">
+        <f>SUM(D16*F16,D17*F17)</f>
+        <v>2.3366664090414555</v>
+      </c>
+      <c r="H16" s="28">
+        <f>SUM(E16:E17)*1000</f>
+        <v>7569135.0000000019</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SUM(Sheet1!K17:X17)</f>
+        <v>4994.6950000000015</v>
+      </c>
+      <c r="F17" s="27">
+        <f>E17/SUM($E$16:$E$17)</f>
+        <v>0.65987659091824891</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="O5:P5"/>
+  <mergeCells count="22">
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/UN Population Data/Sweden.xlsx
+++ b/Data/UN Population Data/Sweden.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>…</t>
   </si>
@@ -204,7 +204,16 @@
     <t>2015 Population</t>
   </si>
   <si>
-    <t>h</t>
+    <t>Model 3 : Seroprevalence in 2015 by modelling Model 1 assuming constant birth and death rates</t>
+  </si>
+  <si>
+    <t>2015 Population (modelled)</t>
+  </si>
+  <si>
+    <t>0 - 19</t>
+  </si>
+  <si>
+    <t>20 +</t>
   </si>
 </sst>
 </file>
@@ -458,7 +467,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,15 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -514,37 +514,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -851,16 +870,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -2157,8 +2176,8 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
@@ -2227,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P18"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,176 +2260,177 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <f>Sheet1!C13</f>
         <v>594.42700000000002</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="23">
         <f>E4/SUM($E$4:$E$6)</f>
         <v>0.27334601900459482</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="34">
         <f>SUM(D4*F4,D5*F5,D6*F6)</f>
         <v>3.9768679942169527</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="34">
         <f>SUM(E4:E6)*1000</f>
         <v>2174632</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="34">
         <f>H4*(G4/100)</f>
         <v>86482.243999999992</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="28">
         <f>H4-I4</f>
         <v>2088149.7560000001</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>5.8</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="22">
         <f>Sheet1!D13</f>
         <v>569.84900000000005</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="23">
         <f>E5/SUM($E$4:$E$6)</f>
         <v>0.26204387684904851</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="28"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="23">
         <v>4.7</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="22">
         <f>SUM(Sheet1!E13:F13)</f>
         <v>1010.356</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="23">
         <f>E6/SUM($E$4:$E$6)</f>
         <v>0.46461010414635673</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="28"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="B7" s="30">
         <v>2</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <v>5.9</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="22">
         <f>SUM(Sheet1!G13:J13)</f>
         <v>2422.0529999999999</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="23">
         <f>E7/SUM($E$7:$E$8)</f>
         <v>0.36357401346305229</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="34">
         <f>SUM(D7*F7,D8*F8)</f>
         <v>2.4632996727004821</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="34">
         <f>SUM(E7:E8)*1000</f>
         <v>6661788</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="34">
         <f>H7*(G7/100)</f>
         <v>164099.802</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="35">
         <f>H7-I7</f>
         <v>6497688.1979999999</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="9">
         <v>0.5</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="25">
         <f>SUM(Sheet1!K13:X13)</f>
         <v>4239.7349999999997</v>
       </c>
@@ -2418,163 +2438,167 @@
         <f>E8/SUM($E$7:$E$8)</f>
         <v>0.63642598653694771</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+      <c r="B13" s="30">
         <v>1</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="23">
         <f>Sheet1!C17</f>
         <v>587.40499999999997</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="23">
         <f>E13/SUM($E$13:$E$15)</f>
         <v>0.26767998979233781</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="34">
         <f>SUM(D13*F13,D14*F14,D15*F15)</f>
         <v>4.0012499829112791</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="34">
         <f>SUM(E13:E15)*1000</f>
         <v>2194430.0000000005</v>
       </c>
-      <c r="I13" s="28">
-        <f>H13*G13</f>
-        <v>8780463</v>
-      </c>
-      <c r="J13" s="29">
-        <f>I13-H13</f>
-        <v>6586033</v>
+      <c r="I13" s="34">
+        <f>H13*(G13/100)</f>
+        <v>87804.63</v>
+      </c>
+      <c r="J13" s="28">
+        <f>H13-I13</f>
+        <v>2106625.3700000006</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="23">
         <v>5.8</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="23">
         <f>Sheet1!D17</f>
         <v>581.85500000000002</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="23">
         <f t="shared" ref="F14:F15" si="0">E14/SUM($E$13:$E$15)</f>
         <v>0.26515085922084547</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="23">
         <v>4.7</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="23">
         <f>SUM(Sheet1!E17:F17)</f>
         <v>1025.17</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>0.46716915098681661</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="30">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="23">
         <v>5.9</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="23">
         <f>SUM(Sheet1!G17:J17)</f>
         <v>2574.44</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="23">
         <f>E16/SUM($E$16:$E$17)</f>
         <v>0.34012340908175098</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="34">
         <f>SUM(D16*F16,D17*F17)</f>
         <v>2.3366664090414555</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="34">
         <f>SUM(E16:E17)*1000</f>
         <v>7569135.0000000019</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="29"/>
+      <c r="I16" s="37">
+        <f>H16*(G16/100)</f>
+        <v>176865.43500000003</v>
+      </c>
+      <c r="J16" s="28">
+        <f>H16-I16</f>
+        <v>7392269.5650000023</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
@@ -2585,23 +2609,121 @@
         <f>SUM(Sheet1!K17:X17)</f>
         <v>4994.6950000000015</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="23">
         <f>E17/SUM($E$16:$E$17)</f>
         <v>0.65987659091824891</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="37"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>H13+H16</f>
+        <v>9763565.0000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21">
+        <f>(I21/H21)*100</f>
+        <v>5.266393401082115</v>
+      </c>
+      <c r="H21">
+        <f>I21+J21</f>
+        <v>1973172</v>
+      </c>
+      <c r="I21">
+        <v>103915</v>
+      </c>
+      <c r="J21">
+        <v>1869257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22">
+        <f>(I22/H22)*100</f>
+        <v>3.0184759010224669</v>
+      </c>
+      <c r="H22">
+        <f>I22+J22</f>
+        <v>7307032</v>
+      </c>
+      <c r="I22">
+        <v>220561</v>
+      </c>
+      <c r="J22">
+        <v>7086471</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>H21+H22</f>
+        <v>9280204</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="25">
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="G13:G15"/>
@@ -2616,9 +2738,11 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/UN Population Data/Sweden.xlsx
+++ b/Data/UN Population Data/Sweden.xlsx
@@ -467,7 +467,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,25 +521,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,19 +543,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -870,16 +873,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -2176,8 +2179,8 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
@@ -2248,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,16 +2267,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="45" x14ac:dyDescent="0.25">
@@ -2306,7 +2309,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2323,25 +2326,25 @@
         <f>E4/SUM($E$4:$E$6)</f>
         <v>0.27334601900459482</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="32">
         <f>SUM(D4*F4,D5*F5,D6*F6)</f>
         <v>3.9768679942169527</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="32">
         <f>SUM(E4:E6)*1000</f>
         <v>2174632</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <f>H4*(G4/100)</f>
         <v>86482.243999999992</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="31">
         <f>H4-I4</f>
         <v>2088149.7560000001</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
@@ -2356,15 +2359,15 @@
         <f>E5/SUM($E$4:$E$6)</f>
         <v>0.26204387684904851</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="28"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="31"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24" t="s">
         <v>29</v>
       </c>
@@ -2379,15 +2382,15 @@
         <f>E6/SUM($E$4:$E$6)</f>
         <v>0.46461010414635673</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="28"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="31"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="30">
+      <c r="B7" s="38">
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -2404,26 +2407,26 @@
         <f>E7/SUM($E$7:$E$8)</f>
         <v>0.36357401346305229</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <f>SUM(D7*F7,D8*F8)</f>
         <v>2.4632996727004821</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="32">
         <f>SUM(E7:E8)*1000</f>
         <v>6661788</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="32">
         <f>H7*(G7/100)</f>
         <v>164099.802</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <f>H7-I7</f>
         <v>6497688.1979999999</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2438,22 +2441,22 @@
         <f>E8/SUM($E$7:$E$8)</f>
         <v>0.63642598653694771</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="36"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
@@ -2486,7 +2489,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="30">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2503,25 +2506,25 @@
         <f>E13/SUM($E$13:$E$15)</f>
         <v>0.26767998979233781</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="32">
         <f>SUM(D13*F13,D14*F14,D15*F15)</f>
         <v>4.0012499829112791</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="32">
         <f>SUM(E13:E15)*1000</f>
         <v>2194430.0000000005</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="32">
         <f>H13*(G13/100)</f>
         <v>87804.63</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="31">
         <f>H13-I13</f>
         <v>2106625.3700000006</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
@@ -2536,13 +2539,13 @@
         <f t="shared" ref="F14:F15" si="0">E14/SUM($E$13:$E$15)</f>
         <v>0.26515085922084547</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
       <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
@@ -2557,13 +2560,13 @@
         <f t="shared" si="0"/>
         <v>0.46716915098681661</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="38">
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2580,25 +2583,25 @@
         <f>E16/SUM($E$16:$E$17)</f>
         <v>0.34012340908175098</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="32">
         <f>SUM(D16*F16,D17*F17)</f>
         <v>2.3366664090414555</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="32">
         <f>SUM(E16:E17)*1000</f>
         <v>7569135.0000000019</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="41">
         <f>H16*(G16/100)</f>
         <v>176865.43500000003</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="31">
         <f>H16-I16</f>
         <v>7392269.5650000023</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
       <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
@@ -2613,50 +2616,50 @@
         <f>E17/SUM($E$16:$E$17)</f>
         <v>0.65987659091824891</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H18">
         <f>H13+H16</f>
         <v>9763565.0000000019</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="38" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="28" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2664,12 +2667,12 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21">
         <f>(I21/H21)*100</f>
         <v>5.266393401082115</v>
@@ -2689,12 +2692,12 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22">
         <f>(I22/H22)*100</f>
         <v>3.0184759010224669</v>
@@ -2718,12 +2721,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="G13:G15"/>
@@ -2738,10 +2735,16 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/UN Population Data/Sweden.xlsx
+++ b/Data/UN Population Data/Sweden.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\Modelling\Data\UN Population Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\modelling\Data\UN Population Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>…</t>
   </si>
@@ -214,12 +214,18 @@
   </si>
   <si>
     <t>20 +</t>
+  </si>
+  <si>
+    <t>14-under</t>
+  </si>
+  <si>
+    <t>15+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="165" formatCode="##0.0;\-##0.0;0"/>
@@ -531,10 +537,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,25 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -849,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X29"/>
+  <dimension ref="B1:X35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,6 +2243,24 @@
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
     </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="8">
+        <f>SUM(C17:E17)*1000</f>
+        <v>1688811.0000000002</v>
+      </c>
+      <c r="H35" s="8">
+        <f>SUM(F17:X17)*1000</f>
+        <v>8074754.0000000009</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E24:F24"/>
@@ -2252,7 +2276,7 @@
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,16 +2291,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="45" x14ac:dyDescent="0.25">
@@ -2309,7 +2333,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2326,25 +2350,25 @@
         <f>E4/SUM($E$4:$E$6)</f>
         <v>0.27334601900459482</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="33">
         <f>SUM(D4*F4,D5*F5,D6*F6)</f>
         <v>3.9768679942169527</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="33">
         <f>SUM(E4:E6)*1000</f>
         <v>2174632</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <f>H4*(G4/100)</f>
         <v>86482.243999999992</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="38">
         <f>H4-I4</f>
         <v>2088149.7560000001</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
@@ -2359,15 +2383,15 @@
         <f>E5/SUM($E$4:$E$6)</f>
         <v>0.26204387684904851</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="38"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="24" t="s">
         <v>29</v>
       </c>
@@ -2382,15 +2406,15 @@
         <f>E6/SUM($E$4:$E$6)</f>
         <v>0.46461010414635673</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="38"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="38">
+      <c r="B7" s="34">
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -2407,26 +2431,26 @@
         <f>E7/SUM($E$7:$E$8)</f>
         <v>0.36357401346305229</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="33">
         <f>SUM(D7*F7,D8*F8)</f>
         <v>2.4632996727004821</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="33">
         <f>SUM(E7:E8)*1000</f>
         <v>6661788</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="33">
         <f>H7*(G7/100)</f>
         <v>164099.802</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="39">
         <f>H7-I7</f>
         <v>6497688.1979999999</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2444,19 +2468,19 @@
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="34"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
@@ -2489,7 +2513,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="38">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2506,25 +2530,25 @@
         <f>E13/SUM($E$13:$E$15)</f>
         <v>0.26767998979233781</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="33">
         <f>SUM(D13*F13,D14*F14,D15*F15)</f>
         <v>4.0012499829112791</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="33">
         <f>SUM(E13:E15)*1000</f>
         <v>2194430.0000000005</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="33">
         <f>H13*(G13/100)</f>
         <v>87804.63</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="38">
         <f>H13-I13</f>
         <v>2106625.3700000006</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
@@ -2539,13 +2563,13 @@
         <f t="shared" ref="F14:F15" si="0">E14/SUM($E$13:$E$15)</f>
         <v>0.26515085922084547</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="31"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
@@ -2560,13 +2584,13 @@
         <f t="shared" si="0"/>
         <v>0.46716915098681661</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="38">
+      <c r="B16" s="34">
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2583,25 +2607,25 @@
         <f>E16/SUM($E$16:$E$17)</f>
         <v>0.34012340908175098</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="33">
         <f>SUM(D16*F16,D17*F17)</f>
         <v>2.3366664090414555</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="33">
         <f>SUM(E16:E17)*1000</f>
         <v>7569135.0000000019</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="36">
         <f>H16*(G16/100)</f>
         <v>176865.43500000003</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="38">
         <f>H16-I16</f>
         <v>7392269.5650000023</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
@@ -2618,8 +2642,8 @@
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H18">
@@ -2628,17 +2652,17 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
@@ -2647,9 +2671,9 @@
       <c r="C20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="27" t="s">
         <v>36</v>
       </c>
@@ -2670,9 +2694,9 @@
       <c r="C21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21">
         <f>(I21/H21)*100</f>
         <v>5.266393401082115</v>
@@ -2695,9 +2719,9 @@
       <c r="C22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22">
         <f>(I22/H22)*100</f>
         <v>3.0184759010224669</v>
@@ -2721,6 +2745,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="G13:G15"/>
@@ -2737,15 +2770,6 @@
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/UN Population Data/Sweden.xlsx
+++ b/Data/UN Population Data/Sweden.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>…</t>
   </si>
@@ -220,17 +220,27 @@
   </si>
   <si>
     <t>15+</t>
+  </si>
+  <si>
+    <t>0-39</t>
+  </si>
+  <si>
+    <t>Base Population</t>
+  </si>
+  <si>
+    <t>Seronegativity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="165" formatCode="##0.0;\-##0.0;0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +293,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,12 +485,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,28 +555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,9 +573,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -855,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X35"/>
+  <dimension ref="B1:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +891,9 @@
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.28515625" customWidth="1"/>
     <col min="28" max="28" width="14.28515625" customWidth="1"/>
     <col min="29" max="29" width="11.85546875" customWidth="1"/>
@@ -2211,7 +2235,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
@@ -2227,6 +2251,18 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
+      <c r="S28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" t="s">
+        <v>67</v>
+      </c>
+      <c r="U28" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
@@ -2242,16 +2278,66 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>65</v>
+      </c>
+      <c r="S29" s="43">
+        <f>SUM(C17:J17)*1000</f>
+        <v>4768870.0000000009</v>
+      </c>
+      <c r="T29">
+        <v>0.05</v>
+      </c>
+      <c r="U29" s="44">
+        <f>ROUND(S29*T29,0)</f>
+        <v>238444</v>
+      </c>
+      <c r="V29" s="44">
+        <f>S29-U29</f>
+        <v>4530426.0000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="43">
+        <f>SUM(K17:X17)*1000</f>
+        <v>4994695.0000000019</v>
+      </c>
+      <c r="T30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U30" s="44">
+        <f>ROUND(S30*T30,0)</f>
+        <v>24973</v>
+      </c>
+      <c r="V30" s="44">
+        <f>S30-U30</f>
+        <v>4969722.0000000019</v>
+      </c>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" t="s">
+        <v>67</v>
+      </c>
+      <c r="U34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G35" s="8">
         <f>SUM(C17:E17)*1000</f>
         <v>1688811.0000000002</v>
@@ -2259,6 +2345,42 @@
       <c r="H35" s="8">
         <f>SUM(F17:X17)*1000</f>
         <v>8074754.0000000009</v>
+      </c>
+      <c r="R35" t="s">
+        <v>65</v>
+      </c>
+      <c r="S35" s="44">
+        <v>4768870.0000000009</v>
+      </c>
+      <c r="T35">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="U35" s="44">
+        <f>ROUND(S35*T35,0)</f>
+        <v>281363</v>
+      </c>
+      <c r="V35" s="44">
+        <f>S35-U35</f>
+        <v>4487507.0000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="44">
+        <v>4994695.0000000019</v>
+      </c>
+      <c r="T36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U36" s="44">
+        <f>ROUND(S36*T36,0)</f>
+        <v>24973</v>
+      </c>
+      <c r="V36" s="44">
+        <f>S36-U36</f>
+        <v>4969722.0000000019</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -2291,16 +2413,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="45" x14ac:dyDescent="0.25">
@@ -2333,7 +2455,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
+      <c r="B4" s="37">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2350,25 +2472,25 @@
         <f>E4/SUM($E$4:$E$6)</f>
         <v>0.27334601900459482</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f>SUM(D4*F4,D5*F5,D6*F6)</f>
         <v>3.9768679942169527</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <f>SUM(E4:E6)*1000</f>
         <v>2174632</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f>H4*(G4/100)</f>
         <v>86482.243999999992</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="31">
         <f>H4-I4</f>
         <v>2088149.7560000001</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="24" t="s">
         <v>4</v>
       </c>
@@ -2383,15 +2505,15 @@
         <f>E5/SUM($E$4:$E$6)</f>
         <v>0.26204387684904851</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="38"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="31"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="24" t="s">
         <v>29</v>
       </c>
@@ -2406,15 +2528,15 @@
         <f>E6/SUM($E$4:$E$6)</f>
         <v>0.46461010414635673</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="38"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="31"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
+      <c r="B7" s="37">
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -2431,26 +2553,26 @@
         <f>E7/SUM($E$7:$E$8)</f>
         <v>0.36357401346305229</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <f>SUM(D7*F7,D8*F8)</f>
         <v>2.4632996727004821</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="32">
         <f>SUM(E7:E8)*1000</f>
         <v>6661788</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <f>H7*(G7/100)</f>
         <v>164099.802</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="33">
         <f>H7-I7</f>
         <v>6497688.1979999999</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2468,19 +2590,19 @@
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:16" ht="45" x14ac:dyDescent="0.25">
@@ -2513,7 +2635,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="37">
         <v>1</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2530,25 +2652,25 @@
         <f>E13/SUM($E$13:$E$15)</f>
         <v>0.26767998979233781</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <f>SUM(D13*F13,D14*F14,D15*F15)</f>
         <v>4.0012499829112791</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <f>SUM(E13:E15)*1000</f>
         <v>2194430.0000000005</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f>H13*(G13/100)</f>
         <v>87804.63</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="31">
         <f>H13-I13</f>
         <v>2106625.3700000006</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
@@ -2563,13 +2685,13 @@
         <f t="shared" ref="F14:F15" si="0">E14/SUM($E$13:$E$15)</f>
         <v>0.26515085922084547</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="38"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
@@ -2584,13 +2706,13 @@
         <f t="shared" si="0"/>
         <v>0.46716915098681661</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="38"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="37">
         <v>2</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2607,25 +2729,25 @@
         <f>E16/SUM($E$16:$E$17)</f>
         <v>0.34012340908175098</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <f>SUM(D16*F16,D17*F17)</f>
         <v>2.3366664090414555</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <f>SUM(E16:E17)*1000</f>
         <v>7569135.0000000019</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="41">
         <f>H16*(G16/100)</f>
         <v>176865.43500000003</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="31">
         <f>H16-I16</f>
         <v>7392269.5650000023</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
@@ -2642,8 +2764,8 @@
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H18">
@@ -2652,17 +2774,17 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
@@ -2671,9 +2793,9 @@
       <c r="C20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="27" t="s">
         <v>36</v>
       </c>
@@ -2694,9 +2816,9 @@
       <c r="C21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21">
         <f>(I21/H21)*100</f>
         <v>5.266393401082115</v>
@@ -2719,9 +2841,9 @@
       <c r="C22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22">
         <f>(I22/H22)*100</f>
         <v>3.0184759010224669</v>
@@ -2745,15 +2867,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="D21:F22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="G13:G15"/>
@@ -2770,6 +2883,15 @@
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
